--- a/data/cart_bridging_data.xlsx
+++ b/data/cart_bridging_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidfandrei/Desktop/Forschung_Leipzig/CAR_T_Myeloma/rrmm_bsab_bridging/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342E393E-56B7-2845-9C5A-F3B11088DDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D2ED98-7685-EA4B-92E8-F1E0115088C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="18100" tabRatio="844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2360" yWindow="1800" windowWidth="26700" windowHeight="18100" tabRatio="844" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clin_data" sheetId="41" r:id="rId1"/>
@@ -337,7 +337,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5652" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5638" uniqueCount="967">
   <si>
     <t>Patient001</t>
   </si>
@@ -1860,27 +1860,6 @@
     <t>n.d..</t>
   </si>
   <si>
-    <t>Anteil CAR %</t>
-  </si>
-  <si>
-    <t>U266_0h</t>
-  </si>
-  <si>
-    <t>vRI_0h</t>
-  </si>
-  <si>
-    <t>nRI_0h</t>
-  </si>
-  <si>
-    <t>U266_24h</t>
-  </si>
-  <si>
-    <t>vRI_24h</t>
-  </si>
-  <si>
-    <t>nRI_24h</t>
-  </si>
-  <si>
     <t>patient</t>
   </si>
   <si>
@@ -3247,6 +3226,18 @@
   </si>
   <si>
     <t>naive CD8 abs</t>
+  </si>
+  <si>
+    <t>percentage_cart</t>
+  </si>
+  <si>
+    <t>U266 control</t>
+  </si>
+  <si>
+    <t>U266 + vRI</t>
+  </si>
+  <si>
+    <t>U266 + nRI</t>
   </si>
 </sst>
 </file>
@@ -3257,7 +3248,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3357,6 +3348,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3503,7 +3500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3649,6 +3646,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3995,7 +4000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063F6E74-82F4-AC41-A508-A7F2BB5E9CBA}">
   <dimension ref="A1:CW53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+    <sheetView zoomScale="143" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -4134,22 +4139,22 @@
         <v>160</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>463</v>
@@ -4368,22 +4373,22 @@
         <v>143</v>
       </c>
       <c r="CH1" s="30" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="CI1" s="30" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="CJ1" s="30" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="CK1" s="30" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="CL1" s="30" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="CM1" s="30" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="CN1" s="9" t="s">
         <v>216</v>
@@ -4484,7 +4489,7 @@
         <v>359</v>
       </c>
       <c r="AQ2" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AR2" t="s">
         <v>21</v>
@@ -4652,10 +4657,10 @@
         <v>359</v>
       </c>
       <c r="AQ3" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AS3" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AU3" t="s">
         <v>366</v>
@@ -4816,7 +4821,7 @@
         <v>359</v>
       </c>
       <c r="AQ4" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AR4" t="s">
         <v>21</v>
@@ -4930,7 +4935,7 @@
         <v>359</v>
       </c>
       <c r="AQ5" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AS5" t="s">
         <v>375</v>
@@ -5080,7 +5085,7 @@
         <v>359</v>
       </c>
       <c r="AQ6" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="AS6" t="s">
         <v>377</v>
@@ -5222,7 +5227,7 @@
         <v>26</v>
       </c>
       <c r="AQ7" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="AS7" t="s">
         <v>377</v>
@@ -5398,10 +5403,10 @@
       </c>
       <c r="AV8" s="29"/>
       <c r="AW8" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="AY8" s="29" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="BA8" t="s">
         <v>383</v>
@@ -5544,7 +5549,7 @@
         <v>386</v>
       </c>
       <c r="AQ9" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AR9" t="s">
         <v>21</v>
@@ -5578,7 +5583,7 @@
         <v>35</v>
       </c>
       <c r="BE9" s="29" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="BG9" t="s">
         <v>38</v>
@@ -5729,7 +5734,7 @@
         <v>386</v>
       </c>
       <c r="AQ10" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AS10" t="s">
         <v>366</v>
@@ -5741,7 +5746,7 @@
         <v>21</v>
       </c>
       <c r="AW10" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="AX10" t="s">
         <v>21</v>
@@ -5898,7 +5903,7 @@
       </c>
       <c r="AV11" s="29"/>
       <c r="AW11" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="AY11" s="29" t="s">
         <v>395</v>
@@ -5913,7 +5918,7 @@
         <v>20</v>
       </c>
       <c r="BC11" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="BE11" s="29" t="s">
         <v>43</v>
@@ -6060,7 +6065,7 @@
         <v>26</v>
       </c>
       <c r="AQ12" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AR12" t="s">
         <v>31</v>
@@ -6072,7 +6077,7 @@
         <v>31</v>
       </c>
       <c r="AU12" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="AV12" s="29"/>
       <c r="AW12" t="s">
@@ -6371,7 +6376,7 @@
         <v>402</v>
       </c>
       <c r="AQ14" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AS14" t="s">
         <v>395</v>
@@ -6383,7 +6388,7 @@
         <v>21</v>
       </c>
       <c r="AW14" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="AX14" t="s">
         <v>21</v>
@@ -6696,7 +6701,7 @@
         <v>407</v>
       </c>
       <c r="AU16" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="AV16" s="29"/>
       <c r="AW16" t="s">
@@ -6850,7 +6855,7 @@
         <v>402</v>
       </c>
       <c r="AQ17" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AR17" t="s">
         <v>32</v>
@@ -6869,7 +6874,7 @@
         <v>14</v>
       </c>
       <c r="AY17" s="29" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="BA17" t="s">
         <v>99</v>
@@ -7021,7 +7026,7 @@
         <v>404</v>
       </c>
       <c r="AU18" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="AV18" s="29"/>
       <c r="AW18" t="s">
@@ -7175,7 +7180,7 @@
         <v>386</v>
       </c>
       <c r="AQ19" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AR19" t="s">
         <v>21</v>
@@ -7339,7 +7344,7 @@
         <v>416</v>
       </c>
       <c r="AS20" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AU20" t="s">
         <v>402</v>
@@ -7348,7 +7353,7 @@
         <v>21</v>
       </c>
       <c r="AW20" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="AY20" s="29" t="s">
         <v>402</v>
@@ -7510,7 +7515,7 @@
         <v>418</v>
       </c>
       <c r="AQ21" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AS21" t="s">
         <v>14</v>
@@ -7667,7 +7672,7 @@
         <v>20</v>
       </c>
       <c r="AW22" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AX22" t="s">
         <v>21</v>
@@ -7679,7 +7684,7 @@
         <v>21</v>
       </c>
       <c r="BA22" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="BB22" s="29"/>
       <c r="BC22" t="s">
@@ -7843,7 +7848,7 @@
         <v>394</v>
       </c>
       <c r="AU23" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="AV23" s="29"/>
       <c r="AW23" t="s">
@@ -7976,7 +7981,7 @@
         <v>402</v>
       </c>
       <c r="AS24" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="AU24" t="s">
         <v>422</v>
@@ -8123,7 +8128,7 @@
         <v>11</v>
       </c>
       <c r="AU25" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="AV25" s="29" t="s">
         <v>21</v>
@@ -8273,7 +8278,7 @@
         <v>32</v>
       </c>
       <c r="AU26" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="AV26" s="29"/>
       <c r="AW26" t="s">
@@ -8742,7 +8747,7 @@
       </c>
       <c r="AV29" s="29"/>
       <c r="AW29" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AY29" s="29" t="s">
         <v>73</v>
@@ -9045,7 +9050,7 @@
         <v>93</v>
       </c>
       <c r="AS31" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="AU31" t="s">
         <v>53</v>
@@ -9211,7 +9216,7 @@
         <v>440</v>
       </c>
       <c r="AU32" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AV32" s="29" t="s">
         <v>21</v>
@@ -10000,7 +10005,7 @@
         <v>386</v>
       </c>
       <c r="AQ37" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AS37" t="s">
         <v>383</v>
@@ -10563,7 +10568,7 @@
         <v>443</v>
       </c>
       <c r="AS41" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AU41" t="s">
         <v>374</v>
@@ -10695,7 +10700,7 @@
         <v>26</v>
       </c>
       <c r="AQ42" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AR42" t="s">
         <v>31</v>
@@ -10957,7 +10962,7 @@
         <v>386</v>
       </c>
       <c r="AQ44" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AR44" t="s">
         <v>20</v>
@@ -11090,7 +11095,7 @@
         <v>26</v>
       </c>
       <c r="AQ45" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AR45" t="s">
         <v>31</v>
@@ -11354,7 +11359,7 @@
         <v>386</v>
       </c>
       <c r="AQ47" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AR47" t="s">
         <v>31</v>
@@ -11631,7 +11636,7 @@
         <v>26</v>
       </c>
       <c r="AQ49" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AS49" t="s">
         <v>383</v>
@@ -12198,10 +12203,10 @@
         <v>210</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="D1" s="50" t="s">
         <v>493</v>
@@ -12215,7 +12220,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D2" s="38">
         <v>-120</v>
@@ -12229,7 +12234,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D3" s="38">
         <v>-61</v>
@@ -12243,7 +12248,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D4" s="38">
         <v>-77</v>
@@ -12257,7 +12262,7 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D5" s="38">
         <v>-50</v>
@@ -12271,7 +12276,7 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D6" s="38">
         <v>-194</v>
@@ -12285,7 +12290,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D7" s="45">
         <v>-112</v>
@@ -12299,7 +12304,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D8" s="45">
         <v>-54</v>
@@ -12313,7 +12318,7 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D9" s="38">
         <v>-235</v>
@@ -12327,7 +12332,7 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D10" s="38">
         <v>-165</v>
@@ -12341,7 +12346,7 @@
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D11" s="38">
         <v>-64</v>
@@ -12355,7 +12360,7 @@
         <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D12" s="38">
         <v>-62</v>
@@ -12369,7 +12374,7 @@
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D13" s="38">
         <v>-77</v>
@@ -12383,7 +12388,7 @@
         <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D14" s="38">
         <v>-139</v>
@@ -12397,7 +12402,7 @@
         <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D15" s="38">
         <v>-86</v>
@@ -12425,49 +12430,49 @@
         <v>473</v>
       </c>
       <c r="C1" s="48" t="s">
+        <v>591</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>593</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>594</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>595</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>596</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>597</v>
+      </c>
+      <c r="J1" s="48" t="s">
         <v>598</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="K1" s="48" t="s">
         <v>599</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="L1" s="48" t="s">
         <v>600</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="M1" s="48" t="s">
         <v>601</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="N1" s="48" t="s">
         <v>602</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="O1" s="48" t="s">
         <v>603</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="P1" s="48" t="s">
         <v>604</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="Q1" s="48" t="s">
         <v>605</v>
-      </c>
-      <c r="K1" s="48" t="s">
-        <v>606</v>
-      </c>
-      <c r="L1" s="48" t="s">
-        <v>607</v>
-      </c>
-      <c r="M1" s="48" t="s">
-        <v>608</v>
-      </c>
-      <c r="N1" s="48" t="s">
-        <v>609</v>
-      </c>
-      <c r="O1" s="48" t="s">
-        <v>610</v>
-      </c>
-      <c r="P1" s="48" t="s">
-        <v>611</v>
-      </c>
-      <c r="Q1" s="48" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -12892,7 +12897,7 @@
         <v>154</v>
       </c>
       <c r="B11" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C11">
         <v>7408</v>
@@ -13345,7 +13350,7 @@
         <v>165</v>
       </c>
       <c r="B23" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C23">
         <v>20993</v>
@@ -13572,7 +13577,7 @@
         <v>166</v>
       </c>
       <c r="B30" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C30">
         <v>23228</v>
@@ -14076,7 +14081,7 @@
         <v>168</v>
       </c>
       <c r="B42" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C42">
         <v>23313</v>
@@ -14392,7 +14397,7 @@
         <v>169</v>
       </c>
       <c r="B50" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C50">
         <v>14724</v>
@@ -14644,7 +14649,7 @@
         <v>170</v>
       </c>
       <c r="B56" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C56">
         <v>11175</v>
@@ -14907,7 +14912,7 @@
         <v>171</v>
       </c>
       <c r="B63" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C63">
         <v>24680</v>
@@ -15223,7 +15228,7 @@
         <v>173</v>
       </c>
       <c r="B71" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C71">
         <v>8760</v>
@@ -15521,7 +15526,7 @@
         <v>174</v>
       </c>
       <c r="B79" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C79">
         <v>4945</v>
@@ -15802,7 +15807,7 @@
         <v>175</v>
       </c>
       <c r="B86" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C86">
         <v>19598</v>
@@ -16012,7 +16017,7 @@
         <v>180</v>
       </c>
       <c r="B92" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C92">
         <v>20576</v>
@@ -16544,7 +16549,7 @@
         <v>185</v>
       </c>
       <c r="B106" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C106">
         <v>17073</v>
@@ -17240,7 +17245,7 @@
         <v>195</v>
       </c>
       <c r="B124" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C124">
         <v>23598</v>
@@ -17503,7 +17508,7 @@
         <v>196</v>
       </c>
       <c r="B131" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C131">
         <v>2626</v>
@@ -17713,7 +17718,7 @@
         <v>200</v>
       </c>
       <c r="B137" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C137">
         <v>23827</v>
@@ -17782,111 +17787,111 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B1" s="48" t="s">
         <v>473</v>
       </c>
       <c r="C1" s="48" t="s">
+        <v>607</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>608</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>609</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>610</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>611</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>612</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>613</v>
+      </c>
+      <c r="J1" s="48" t="s">
         <v>614</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="K1" s="48" t="s">
         <v>615</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="L1" s="48" t="s">
         <v>616</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="M1" s="48" t="s">
         <v>617</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="N1" s="48" t="s">
         <v>618</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="O1" s="48" t="s">
         <v>619</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="P1" s="48" t="s">
         <v>620</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="Q1" s="48" t="s">
         <v>621</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="R1" s="48" t="s">
         <v>622</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="S1" s="48" t="s">
         <v>623</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="T1" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="U1" s="48" t="s">
         <v>625</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="V1" s="48" t="s">
         <v>626</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="W1" s="48" t="s">
         <v>627</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="X1" s="48" t="s">
         <v>628</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="Y1" s="48" t="s">
         <v>629</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="Z1" s="48" t="s">
         <v>630</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="AA1" s="48" t="s">
         <v>631</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="AB1" s="48" t="s">
         <v>632</v>
       </c>
-      <c r="V1" s="48" t="s">
+      <c r="AC1" s="48" t="s">
         <v>633</v>
       </c>
-      <c r="W1" s="48" t="s">
+      <c r="AD1" s="48" t="s">
         <v>634</v>
       </c>
-      <c r="X1" s="48" t="s">
+      <c r="AE1" s="48" t="s">
         <v>635</v>
       </c>
-      <c r="Y1" s="48" t="s">
+      <c r="AF1" s="48" t="s">
         <v>636</v>
       </c>
-      <c r="Z1" s="48" t="s">
+      <c r="AG1" s="48" t="s">
         <v>637</v>
       </c>
-      <c r="AA1" s="48" t="s">
+      <c r="AH1" s="48" t="s">
         <v>638</v>
-      </c>
-      <c r="AB1" s="48" t="s">
-        <v>639</v>
-      </c>
-      <c r="AC1" s="48" t="s">
-        <v>640</v>
-      </c>
-      <c r="AD1" s="48" t="s">
-        <v>641</v>
-      </c>
-      <c r="AE1" s="48" t="s">
-        <v>642</v>
-      </c>
-      <c r="AF1" s="48" t="s">
-        <v>643</v>
-      </c>
-      <c r="AG1" s="48" t="s">
-        <v>644</v>
-      </c>
-      <c r="AH1" s="48" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B2" t="s">
         <v>494</v>
@@ -17990,7 +17995,7 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -18094,7 +18099,7 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -18198,7 +18203,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B5" t="s">
         <v>494</v>
@@ -18302,10 +18307,10 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B6" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C6">
         <v>8.8000000000000007</v>
@@ -18406,7 +18411,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -18510,7 +18515,7 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -18614,7 +18619,7 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -18718,7 +18723,7 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -18822,7 +18827,7 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B11">
         <v>30</v>
@@ -18926,7 +18931,7 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B12" t="s">
         <v>494</v>
@@ -19030,7 +19035,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -19134,7 +19139,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -19238,7 +19243,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -19342,10 +19347,10 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B16" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C16">
         <v>5.4</v>
@@ -19446,7 +19451,7 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -19550,7 +19555,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -19654,7 +19659,7 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -19758,7 +19763,7 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B20">
         <v>14</v>
@@ -19862,7 +19867,7 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B21">
         <v>30</v>
@@ -19966,7 +19971,7 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B22">
         <v>100</v>
@@ -20070,7 +20075,7 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -20174,7 +20179,7 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B24">
         <v>7</v>
@@ -20278,7 +20283,7 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B25">
         <v>14</v>
@@ -20382,7 +20387,7 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="C26">
         <v>71.099999999999994</v>
@@ -20483,7 +20488,7 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B27">
         <v>30</v>
@@ -20587,7 +20592,7 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B28">
         <v>100</v>
@@ -20691,7 +20696,7 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -20795,7 +20800,7 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -20899,7 +20904,7 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B31">
         <v>14</v>
@@ -21003,7 +21008,7 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B32">
         <v>30</v>
@@ -21107,7 +21112,7 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -21211,7 +21216,7 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B34">
         <v>14</v>
@@ -21315,7 +21320,7 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B35">
         <v>30</v>
@@ -21419,7 +21424,7 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B36">
         <v>100</v>
@@ -21523,10 +21528,10 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B37" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C37">
         <v>7.8</v>
@@ -21627,7 +21632,7 @@
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -21731,7 +21736,7 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -21835,7 +21840,7 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B40">
         <v>7</v>
@@ -21939,7 +21944,7 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B41">
         <v>14</v>
@@ -22043,7 +22048,7 @@
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B42">
         <v>30</v>
@@ -22147,7 +22152,7 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B43">
         <v>100</v>
@@ -22251,10 +22256,10 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B44" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C44">
         <v>5.4</v>
@@ -22355,7 +22360,7 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -22459,7 +22464,7 @@
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -22563,7 +22568,7 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B47">
         <v>7</v>
@@ -22667,7 +22672,7 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B48">
         <v>14</v>
@@ -22771,7 +22776,7 @@
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B49">
         <v>30</v>
@@ -22875,7 +22880,7 @@
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B50">
         <v>100</v>
@@ -22979,10 +22984,10 @@
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B51" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C51">
         <v>18.600000000000001</v>
@@ -23083,7 +23088,7 @@
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -23187,7 +23192,7 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -23291,7 +23296,7 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B54">
         <v>7</v>
@@ -23395,7 +23400,7 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B55">
         <v>14</v>
@@ -23499,7 +23504,7 @@
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B56">
         <v>30</v>
@@ -23603,7 +23608,7 @@
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B57">
         <v>100</v>
@@ -23707,10 +23712,10 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B58" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C58">
         <v>5.8</v>
@@ -23811,7 +23816,7 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -23915,7 +23920,7 @@
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -24019,7 +24024,7 @@
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B61">
         <v>7</v>
@@ -24123,7 +24128,7 @@
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B62">
         <v>14</v>
@@ -24227,7 +24232,7 @@
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B63">
         <v>30</v>
@@ -24331,7 +24336,7 @@
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B64">
         <v>100</v>
@@ -24435,10 +24440,10 @@
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="B65" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C65">
         <v>26</v>
@@ -24539,7 +24544,7 @@
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -24643,7 +24648,7 @@
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -24747,7 +24752,7 @@
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="B68">
         <v>7</v>
@@ -24851,7 +24856,7 @@
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="B69">
         <v>14</v>
@@ -24955,7 +24960,7 @@
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="B70">
         <v>30</v>
@@ -25059,7 +25064,7 @@
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="B71">
         <v>100</v>
@@ -25186,39 +25191,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B1" s="49" t="s">
         <v>210</v>
       </c>
       <c r="C1" s="49" t="s">
+        <v>640</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>641</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>642</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>643</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>644</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>645</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>646</v>
+      </c>
+      <c r="J1" s="49" t="s">
         <v>647</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>648</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>649</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>650</v>
-      </c>
-      <c r="G1" s="49" t="s">
-        <v>651</v>
-      </c>
-      <c r="H1" s="49" t="s">
-        <v>652</v>
-      </c>
-      <c r="I1" s="49" t="s">
-        <v>653</v>
-      </c>
-      <c r="J1" s="49" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -25250,7 +25255,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -25282,7 +25287,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -25314,7 +25319,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -25346,7 +25351,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -25378,7 +25383,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -25404,7 +25409,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -25436,7 +25441,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B9" t="s">
         <v>87</v>
@@ -25468,7 +25473,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B10" t="s">
         <v>90</v>
@@ -25500,7 +25505,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B11" t="s">
         <v>88</v>
@@ -25526,7 +25531,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -25558,7 +25563,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B13" t="s">
         <v>91</v>
@@ -25590,7 +25595,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B14" t="s">
         <v>101</v>
@@ -25622,7 +25627,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B15" t="s">
         <v>100</v>
@@ -25654,7 +25659,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B16" t="s">
         <v>92</v>
@@ -25686,7 +25691,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B17" t="s">
         <v>89</v>
@@ -25718,7 +25723,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B18" t="s">
         <v>108</v>
@@ -25750,7 +25755,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B19" t="s">
         <v>109</v>
@@ -25782,7 +25787,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="B20" t="s">
         <v>102</v>
@@ -25814,7 +25819,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B21" t="s">
         <v>110</v>
@@ -25846,7 +25851,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B22" t="s">
         <v>111</v>
@@ -25878,7 +25883,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B23" t="s">
         <v>113</v>
@@ -25898,7 +25903,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B24" t="s">
         <v>114</v>
@@ -25930,7 +25935,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B25" t="s">
         <v>119</v>
@@ -25962,7 +25967,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B26" t="s">
         <v>154</v>
@@ -25994,7 +25999,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="B27" t="s">
         <v>164</v>
@@ -26026,7 +26031,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="B28" t="s">
         <v>112</v>
@@ -26058,7 +26063,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B29" t="s">
         <v>120</v>
@@ -26090,7 +26095,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B30" t="s">
         <v>130</v>
@@ -26122,7 +26127,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B31" t="s">
         <v>165</v>
@@ -26142,7 +26147,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B32" t="s">
         <v>166</v>
@@ -26168,7 +26173,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B33" t="s">
         <v>167</v>
@@ -26194,7 +26199,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="B34" t="s">
         <v>168</v>
@@ -26220,7 +26225,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B35" t="s">
         <v>169</v>
@@ -26246,7 +26251,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B36" t="s">
         <v>170</v>
@@ -26266,7 +26271,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="B37" t="s">
         <v>171</v>
@@ -26292,7 +26297,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="B38" t="s">
         <v>172</v>
@@ -26306,7 +26311,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B39" t="s">
         <v>173</v>
@@ -26338,7 +26343,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B40" t="s">
         <v>174</v>
@@ -26370,7 +26375,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="B41" t="s">
         <v>175</v>
@@ -26396,7 +26401,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B42" t="s">
         <v>180</v>
@@ -26416,7 +26421,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B43" t="s">
         <v>181</v>
@@ -26442,7 +26447,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B44" t="s">
         <v>185</v>
@@ -26474,7 +26479,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B45" t="s">
         <v>186</v>
@@ -26500,7 +26505,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B46" t="s">
         <v>189</v>
@@ -26526,7 +26531,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B47" t="s">
         <v>195</v>
@@ -26558,7 +26563,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B48" t="s">
         <v>196</v>
@@ -26584,7 +26589,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B49" t="s">
         <v>197</v>
@@ -26610,7 +26615,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B50" t="s">
         <v>198</v>
@@ -26636,7 +26641,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="B51" t="s">
         <v>200</v>
@@ -26696,10 +26701,10 @@
         <v>473</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="E1" s="51"/>
       <c r="F1" s="52"/>
@@ -27797,7 +27802,7 @@
         <v>101</v>
       </c>
       <c r="B70" s="55" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C70" s="56">
         <v>493785</v>
@@ -28005,7 +28010,7 @@
         <v>108</v>
       </c>
       <c r="B83" s="55" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C83" s="56">
         <v>152924</v>
@@ -28405,7 +28410,7 @@
         <v>120</v>
       </c>
       <c r="B108" s="55" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C108" s="56">
         <v>2775000</v>
@@ -28485,7 +28490,7 @@
         <v>119</v>
       </c>
       <c r="B113" s="55" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C113" s="56">
         <v>57039</v>
@@ -28581,7 +28586,7 @@
         <v>130</v>
       </c>
       <c r="B119" s="55" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C119" s="56">
         <v>74421</v>
@@ -29089,7 +29094,7 @@
         <v>169</v>
       </c>
       <c r="B151" s="55" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C151" s="56">
         <v>115512</v>
@@ -29169,7 +29174,7 @@
         <v>170</v>
       </c>
       <c r="B156" s="55" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C156" s="56">
         <v>87467</v>
@@ -29297,7 +29302,7 @@
         <v>172</v>
       </c>
       <c r="B164" s="55" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C164" s="56">
         <v>1152000</v>
@@ -29645,7 +29650,7 @@
         <v>186</v>
       </c>
       <c r="B186" s="55" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C186" s="56">
         <v>91562</v>
@@ -29709,7 +29714,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="55" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C190" s="56">
         <v>20405</v>
@@ -29789,7 +29794,7 @@
         <v>195</v>
       </c>
       <c r="B195" s="55" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C195" s="56">
         <v>185453</v>
@@ -31973,7 +31978,7 @@
   <sheetData>
     <row r="1" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>472</v>
@@ -32146,7 +32151,7 @@
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>155</v>
@@ -32187,7 +32192,7 @@
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>156</v>
@@ -32228,7 +32233,7 @@
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>155</v>
@@ -32272,7 +32277,7 @@
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>156</v>
@@ -32316,7 +32321,7 @@
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>155</v>
@@ -32366,7 +32371,7 @@
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>155</v>
@@ -32428,7 +32433,7 @@
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>155</v>
@@ -32478,7 +32483,7 @@
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>155</v>
@@ -32549,7 +32554,7 @@
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>156</v>
@@ -32590,7 +32595,7 @@
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>155</v>
@@ -32649,7 +32654,7 @@
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>155</v>
@@ -32723,7 +32728,7 @@
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>155</v>
@@ -32785,7 +32790,7 @@
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>155</v>
@@ -32838,7 +32843,7 @@
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>155</v>
@@ -32894,7 +32899,7 @@
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>155</v>
@@ -32956,7 +32961,7 @@
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>155</v>
@@ -33015,7 +33020,7 @@
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>155</v>
@@ -33074,7 +33079,7 @@
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>155</v>
@@ -33112,7 +33117,7 @@
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>155</v>
@@ -33165,7 +33170,7 @@
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>155</v>
@@ -33218,7 +33223,7 @@
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>155</v>
@@ -33265,7 +33270,7 @@
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B23" s="32" t="s">
         <v>155</v>
@@ -33321,7 +33326,7 @@
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>155</v>
@@ -33368,7 +33373,7 @@
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>155</v>
@@ -33442,7 +33447,7 @@
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>156</v>
@@ -33480,7 +33485,7 @@
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B27" s="32" t="s">
         <v>155</v>
@@ -33530,7 +33535,7 @@
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B28" s="32" t="s">
         <v>155</v>
@@ -33586,7 +33591,7 @@
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B29" s="32" t="s">
         <v>156</v>
@@ -33627,7 +33632,7 @@
     </row>
     <row r="30" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B30" s="32" t="s">
         <v>156</v>
@@ -33665,7 +33670,7 @@
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B31" s="32" t="s">
         <v>156</v>
@@ -33679,7 +33684,7 @@
     </row>
     <row r="32" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="B32" s="32" t="s">
         <v>155</v>
@@ -33747,7 +33752,7 @@
     </row>
     <row r="33" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B33" s="32" t="s">
         <v>155</v>
@@ -33797,7 +33802,7 @@
     </row>
     <row r="34" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B34" s="32" t="s">
         <v>155</v>
@@ -33856,7 +33861,7 @@
     </row>
     <row r="35" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B35" s="32" t="s">
         <v>155</v>
@@ -33924,7 +33929,7 @@
     </row>
     <row r="36" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="B36" s="32" t="s">
         <v>156</v>
@@ -33965,7 +33970,7 @@
     </row>
     <row r="37" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B37" s="32" t="s">
         <v>155</v>
@@ -34030,7 +34035,7 @@
     </row>
     <row r="38" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B38" s="32" t="s">
         <v>156</v>
@@ -34080,7 +34085,7 @@
     </row>
     <row r="39" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="B39" t="s">
         <v>155</v>
@@ -34094,7 +34099,7 @@
     </row>
     <row r="40" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="B40" s="32" t="s">
         <v>156</v>
@@ -34156,7 +34161,7 @@
     </row>
     <row r="41" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B41" s="32" t="s">
         <v>155</v>
@@ -34203,7 +34208,7 @@
     </row>
     <row r="42" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B42" s="32" t="s">
         <v>156</v>
@@ -34250,7 +34255,7 @@
     </row>
     <row r="43" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>155</v>
@@ -34300,7 +34305,7 @@
     </row>
     <row r="44" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B44" s="32" t="s">
         <v>155</v>
@@ -34368,7 +34373,7 @@
     </row>
     <row r="45" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B45" s="32" t="s">
         <v>156</v>
@@ -34418,7 +34423,7 @@
     </row>
     <row r="46" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B46" s="32" t="s">
         <v>155</v>
@@ -34483,7 +34488,7 @@
     </row>
     <row r="47" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B47" s="32" t="s">
         <v>156</v>
@@ -34521,7 +34526,7 @@
     </row>
     <row r="48" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B48" s="32" t="s">
         <v>155</v>
@@ -34571,7 +34576,7 @@
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B49" s="32" t="s">
         <v>155</v>
@@ -34615,7 +34620,7 @@
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B50" s="32" t="s">
         <v>155</v>
@@ -34677,7 +34682,7 @@
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B51" s="32" t="s">
         <v>155</v>
@@ -34736,7 +34741,7 @@
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B52" s="32" t="s">
         <v>155</v>
@@ -34789,7 +34794,7 @@
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="B53" s="32" t="s">
         <v>155</v>
@@ -55103,88 +55108,88 @@
         <v>210</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="C1" s="48" t="s">
         <v>473</v>
       </c>
       <c r="D1" s="48" t="s">
+        <v>658</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>659</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>660</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>661</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>662</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>663</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>664</v>
+      </c>
+      <c r="K1" s="48" t="s">
         <v>665</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="L1" s="48" t="s">
         <v>666</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="M1" s="48" t="s">
         <v>667</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="N1" s="48" t="s">
         <v>668</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="O1" s="48" t="s">
         <v>669</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="P1" s="48" t="s">
         <v>670</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="Q1" s="48" t="s">
         <v>671</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="R1" s="48" t="s">
         <v>672</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="S1" s="48" t="s">
         <v>673</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="T1" s="48" t="s">
         <v>674</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="U1" s="48" t="s">
         <v>675</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="V1" s="48" t="s">
+        <v>957</v>
+      </c>
+      <c r="W1" s="48" t="s">
+        <v>958</v>
+      </c>
+      <c r="X1" s="48" t="s">
+        <v>959</v>
+      </c>
+      <c r="Y1" s="48" t="s">
+        <v>962</v>
+      </c>
+      <c r="Z1" s="48" t="s">
+        <v>960</v>
+      </c>
+      <c r="AA1" s="48" t="s">
+        <v>961</v>
+      </c>
+      <c r="AB1" s="48" t="s">
         <v>676</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="AC1" s="48" t="s">
         <v>677</v>
-      </c>
-      <c r="Q1" s="48" t="s">
-        <v>678</v>
-      </c>
-      <c r="R1" s="48" t="s">
-        <v>679</v>
-      </c>
-      <c r="S1" s="48" t="s">
-        <v>680</v>
-      </c>
-      <c r="T1" s="48" t="s">
-        <v>681</v>
-      </c>
-      <c r="U1" s="48" t="s">
-        <v>682</v>
-      </c>
-      <c r="V1" s="48" t="s">
-        <v>964</v>
-      </c>
-      <c r="W1" s="48" t="s">
-        <v>965</v>
-      </c>
-      <c r="X1" s="48" t="s">
-        <v>966</v>
-      </c>
-      <c r="Y1" s="48" t="s">
-        <v>969</v>
-      </c>
-      <c r="Z1" s="48" t="s">
-        <v>967</v>
-      </c>
-      <c r="AA1" s="48" t="s">
-        <v>968</v>
-      </c>
-      <c r="AB1" s="48" t="s">
-        <v>683</v>
-      </c>
-      <c r="AC1" s="48" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
@@ -55192,7 +55197,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="C2" t="s">
         <v>494</v>
@@ -55281,7 +55286,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="C3" t="s">
         <v>496</v>
@@ -55370,7 +55375,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="C4" t="s">
         <v>497</v>
@@ -55459,7 +55464,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="C5" t="s">
         <v>498</v>
@@ -55548,7 +55553,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C6" t="s">
         <v>500</v>
@@ -55637,7 +55642,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C7" t="s">
         <v>501</v>
@@ -55726,7 +55731,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="C8" t="s">
         <v>494</v>
@@ -55815,7 +55820,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="C9" t="s">
         <v>496</v>
@@ -55904,7 +55909,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="C10" t="s">
         <v>497</v>
@@ -55993,7 +55998,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="C11" t="s">
         <v>498</v>
@@ -56082,7 +56087,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="C12" t="s">
         <v>500</v>
@@ -56171,7 +56176,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="C13" t="s">
         <v>501</v>
@@ -56260,7 +56265,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="C14" t="s">
         <v>494</v>
@@ -56349,7 +56354,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="C15" t="s">
         <v>496</v>
@@ -56438,7 +56443,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="C16" t="s">
         <v>497</v>
@@ -56527,7 +56532,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="C17" t="s">
         <v>498</v>
@@ -56616,7 +56621,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="C18" t="s">
         <v>500</v>
@@ -56705,7 +56710,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="C19" t="s">
         <v>501</v>
@@ -56794,7 +56799,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="C20" t="s">
         <v>494</v>
@@ -56883,7 +56888,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="C21" t="s">
         <v>496</v>
@@ -56972,7 +56977,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="C22" t="s">
         <v>497</v>
@@ -57061,7 +57066,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="C23" t="s">
         <v>498</v>
@@ -57150,7 +57155,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="C24" t="s">
         <v>500</v>
@@ -57239,7 +57244,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="C25" t="s">
         <v>501</v>
@@ -57328,7 +57333,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C26" t="s">
         <v>496</v>
@@ -57417,7 +57422,7 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="C27" t="s">
         <v>497</v>
@@ -57506,7 +57511,7 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="C28" t="s">
         <v>498</v>
@@ -57595,7 +57600,7 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="C29" t="s">
         <v>500</v>
@@ -57684,7 +57689,7 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="C30" t="s">
         <v>501</v>
@@ -57773,7 +57778,7 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="C31" t="s">
         <v>494</v>
@@ -57862,7 +57867,7 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="C32" t="s">
         <v>496</v>
@@ -57951,7 +57956,7 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="C33" t="s">
         <v>497</v>
@@ -58040,7 +58045,7 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="C34" t="s">
         <v>498</v>
@@ -58129,7 +58134,7 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="C35" t="s">
         <v>500</v>
@@ -58218,7 +58223,7 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="C36" t="s">
         <v>501</v>
@@ -58307,7 +58312,7 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="C37" t="s">
         <v>494</v>
@@ -58396,7 +58401,7 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="C38" t="s">
         <v>496</v>
@@ -58485,7 +58490,7 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="C39" t="s">
         <v>497</v>
@@ -58574,7 +58579,7 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="C40" t="s">
         <v>498</v>
@@ -58663,7 +58668,7 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="C41" t="s">
         <v>500</v>
@@ -58752,7 +58757,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="C42" t="s">
         <v>494</v>
@@ -58841,7 +58846,7 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="C43" t="s">
         <v>496</v>
@@ -58894,7 +58899,7 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="C44" t="s">
         <v>497</v>
@@ -58983,7 +58988,7 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="C45" t="s">
         <v>498</v>
@@ -59072,7 +59077,7 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="C46" t="s">
         <v>500</v>
@@ -59161,7 +59166,7 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="C47" t="s">
         <v>501</v>
@@ -59250,7 +59255,7 @@
         <v>87</v>
       </c>
       <c r="B48" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="C48" t="s">
         <v>494</v>
@@ -59339,7 +59344,7 @@
         <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="C49" t="s">
         <v>496</v>
@@ -59428,7 +59433,7 @@
         <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="C50" t="s">
         <v>497</v>
@@ -59517,7 +59522,7 @@
         <v>87</v>
       </c>
       <c r="B51" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="C51" t="s">
         <v>498</v>
@@ -59606,7 +59611,7 @@
         <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="C52" t="s">
         <v>500</v>
@@ -59695,7 +59700,7 @@
         <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="C53" t="s">
         <v>501</v>
@@ -59784,7 +59789,7 @@
         <v>88</v>
       </c>
       <c r="B54" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="C54" t="s">
         <v>494</v>
@@ -59873,7 +59878,7 @@
         <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="C55" t="s">
         <v>496</v>
@@ -59890,7 +59895,7 @@
         <v>88</v>
       </c>
       <c r="B56" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="C56" t="s">
         <v>497</v>
@@ -59979,7 +59984,7 @@
         <v>88</v>
       </c>
       <c r="B57" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="C57" t="s">
         <v>498</v>
@@ -60068,7 +60073,7 @@
         <v>88</v>
       </c>
       <c r="B58" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="C58" t="s">
         <v>500</v>
@@ -60157,7 +60162,7 @@
         <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="C59" t="s">
         <v>494</v>
@@ -60246,7 +60251,7 @@
         <v>89</v>
       </c>
       <c r="B60" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="C60" t="s">
         <v>496</v>
@@ -60335,7 +60340,7 @@
         <v>89</v>
       </c>
       <c r="B61" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="C61" t="s">
         <v>497</v>
@@ -60424,7 +60429,7 @@
         <v>89</v>
       </c>
       <c r="B62" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="C62" t="s">
         <v>498</v>
@@ -60513,7 +60518,7 @@
         <v>89</v>
       </c>
       <c r="B63" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="C63" t="s">
         <v>500</v>
@@ -60602,7 +60607,7 @@
         <v>89</v>
       </c>
       <c r="B64" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="C64" t="s">
         <v>501</v>
@@ -60691,7 +60696,7 @@
         <v>90</v>
       </c>
       <c r="B65" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="C65" t="s">
         <v>494</v>
@@ -60780,7 +60785,7 @@
         <v>90</v>
       </c>
       <c r="B66" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="C66" t="s">
         <v>496</v>
@@ -60869,7 +60874,7 @@
         <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="C67" t="s">
         <v>497</v>
@@ -60958,7 +60963,7 @@
         <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="C68" t="s">
         <v>498</v>
@@ -61047,7 +61052,7 @@
         <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="C69" t="s">
         <v>500</v>
@@ -61136,7 +61141,7 @@
         <v>90</v>
       </c>
       <c r="B70" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="C70" t="s">
         <v>501</v>
@@ -61225,7 +61230,7 @@
         <v>91</v>
       </c>
       <c r="B71" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="C71" t="s">
         <v>494</v>
@@ -61314,7 +61319,7 @@
         <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="C72" t="s">
         <v>497</v>
@@ -61403,7 +61408,7 @@
         <v>91</v>
       </c>
       <c r="B73" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C73" t="s">
         <v>498</v>
@@ -61492,7 +61497,7 @@
         <v>91</v>
       </c>
       <c r="B74" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="C74" t="s">
         <v>500</v>
@@ -61581,7 +61586,7 @@
         <v>91</v>
       </c>
       <c r="B75" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="C75" t="s">
         <v>501</v>
@@ -61670,7 +61675,7 @@
         <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="C76" t="s">
         <v>494</v>
@@ -61759,7 +61764,7 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="C77" t="s">
         <v>496</v>
@@ -61848,7 +61853,7 @@
         <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="C78" t="s">
         <v>497</v>
@@ -61937,7 +61942,7 @@
         <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="C79" t="s">
         <v>498</v>
@@ -62026,7 +62031,7 @@
         <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="C80" t="s">
         <v>500</v>
@@ -62115,7 +62120,7 @@
         <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="C81" t="s">
         <v>501</v>
@@ -62204,7 +62209,7 @@
         <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="C82" t="s">
         <v>494</v>
@@ -62293,7 +62298,7 @@
         <v>100</v>
       </c>
       <c r="B83" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="C83" t="s">
         <v>496</v>
@@ -62352,7 +62357,7 @@
         <v>100</v>
       </c>
       <c r="B84" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="C84" t="s">
         <v>497</v>
@@ -62441,7 +62446,7 @@
         <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="C85" t="s">
         <v>498</v>
@@ -62530,7 +62535,7 @@
         <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="C86" t="s">
         <v>500</v>
@@ -62619,7 +62624,7 @@
         <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="C87" t="s">
         <v>501</v>
@@ -62708,7 +62713,7 @@
         <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="C88" t="s">
         <v>494</v>
@@ -62797,7 +62802,7 @@
         <v>101</v>
       </c>
       <c r="B89" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="C89" t="s">
         <v>496</v>
@@ -62886,7 +62891,7 @@
         <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="C90" t="s">
         <v>497</v>
@@ -62975,7 +62980,7 @@
         <v>101</v>
       </c>
       <c r="B91" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="C91" t="s">
         <v>498</v>
@@ -63064,7 +63069,7 @@
         <v>101</v>
       </c>
       <c r="B92" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="C92" t="s">
         <v>500</v>
@@ -63153,7 +63158,7 @@
         <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="C93" t="s">
         <v>501</v>
@@ -63242,7 +63247,7 @@
         <v>102</v>
       </c>
       <c r="B94" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C94" t="s">
         <v>494</v>
@@ -63331,7 +63336,7 @@
         <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="C95" t="s">
         <v>497</v>
@@ -63420,7 +63425,7 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="C96" t="s">
         <v>498</v>
@@ -63509,7 +63514,7 @@
         <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="C97" t="s">
         <v>500</v>
@@ -63598,7 +63603,7 @@
         <v>102</v>
       </c>
       <c r="B98" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="C98" t="s">
         <v>501</v>
@@ -63687,7 +63692,7 @@
         <v>108</v>
       </c>
       <c r="B99" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="C99" t="s">
         <v>494</v>
@@ -63776,7 +63781,7 @@
         <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="C100" t="s">
         <v>496</v>
@@ -63865,7 +63870,7 @@
         <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="C101" t="s">
         <v>497</v>
@@ -63954,7 +63959,7 @@
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="C102" t="s">
         <v>498</v>
@@ -64043,7 +64048,7 @@
         <v>108</v>
       </c>
       <c r="B103" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="C103" t="s">
         <v>500</v>
@@ -64132,7 +64137,7 @@
         <v>108</v>
       </c>
       <c r="B104" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="C104" t="s">
         <v>501</v>
@@ -64221,7 +64226,7 @@
         <v>109</v>
       </c>
       <c r="B105" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="C105" t="s">
         <v>494</v>
@@ -64310,7 +64315,7 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="C106" t="s">
         <v>496</v>
@@ -64399,7 +64404,7 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="C107" t="s">
         <v>497</v>
@@ -64488,7 +64493,7 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="C108" t="s">
         <v>498</v>
@@ -64577,7 +64582,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="C109" t="s">
         <v>500</v>
@@ -64666,7 +64671,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="C110" t="s">
         <v>501</v>
@@ -64755,7 +64760,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="C111" t="s">
         <v>494</v>
@@ -64844,7 +64849,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="C112" t="s">
         <v>496</v>
@@ -64933,7 +64938,7 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="C113" t="s">
         <v>497</v>
@@ -65022,7 +65027,7 @@
         <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="C114" t="s">
         <v>498</v>
@@ -65111,7 +65116,7 @@
         <v>110</v>
       </c>
       <c r="B115" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="C115" t="s">
         <v>500</v>
@@ -65200,7 +65205,7 @@
         <v>110</v>
       </c>
       <c r="B116" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C116" t="s">
         <v>501</v>
@@ -65289,7 +65294,7 @@
         <v>111</v>
       </c>
       <c r="B117" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="C117" t="s">
         <v>494</v>
@@ -65378,7 +65383,7 @@
         <v>111</v>
       </c>
       <c r="B118" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="C118" t="s">
         <v>496</v>
@@ -65467,7 +65472,7 @@
         <v>111</v>
       </c>
       <c r="B119" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="C119" t="s">
         <v>497</v>
@@ -65556,7 +65561,7 @@
         <v>111</v>
       </c>
       <c r="B120" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="C120" t="s">
         <v>498</v>
@@ -65645,7 +65650,7 @@
         <v>111</v>
       </c>
       <c r="B121" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="C121" t="s">
         <v>500</v>
@@ -65734,7 +65739,7 @@
         <v>111</v>
       </c>
       <c r="B122" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="C122" t="s">
         <v>501</v>
@@ -65823,7 +65828,7 @@
         <v>112</v>
       </c>
       <c r="B123" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="C123" t="s">
         <v>494</v>
@@ -65912,7 +65917,7 @@
         <v>112</v>
       </c>
       <c r="B124" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="C124" t="s">
         <v>496</v>
@@ -66001,7 +66006,7 @@
         <v>112</v>
       </c>
       <c r="B125" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="C125" t="s">
         <v>497</v>
@@ -66090,7 +66095,7 @@
         <v>112</v>
       </c>
       <c r="B126" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="C126" t="s">
         <v>498</v>
@@ -66179,7 +66184,7 @@
         <v>112</v>
       </c>
       <c r="B127" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="C127" t="s">
         <v>500</v>
@@ -66268,7 +66273,7 @@
         <v>112</v>
       </c>
       <c r="B128" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="C128" t="s">
         <v>501</v>
@@ -66357,7 +66362,7 @@
         <v>113</v>
       </c>
       <c r="B129" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="C129" t="s">
         <v>494</v>
@@ -66446,7 +66451,7 @@
         <v>113</v>
       </c>
       <c r="B130" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="C130" t="s">
         <v>496</v>
@@ -66535,7 +66540,7 @@
         <v>113</v>
       </c>
       <c r="B131" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="C131" t="s">
         <v>497</v>
@@ -66624,7 +66629,7 @@
         <v>113</v>
       </c>
       <c r="B132" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="C132" t="s">
         <v>500</v>
@@ -66713,7 +66718,7 @@
         <v>114</v>
       </c>
       <c r="B133" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="C133" t="s">
         <v>494</v>
@@ -66802,7 +66807,7 @@
         <v>114</v>
       </c>
       <c r="B134" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="C134" t="s">
         <v>496</v>
@@ -66891,7 +66896,7 @@
         <v>114</v>
       </c>
       <c r="B135" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="C135" t="s">
         <v>497</v>
@@ -66980,7 +66985,7 @@
         <v>114</v>
       </c>
       <c r="B136" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="C136" t="s">
         <v>498</v>
@@ -67069,7 +67074,7 @@
         <v>114</v>
       </c>
       <c r="B137" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="C137" t="s">
         <v>500</v>
@@ -67158,7 +67163,7 @@
         <v>114</v>
       </c>
       <c r="B138" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="C138" t="s">
         <v>501</v>
@@ -67247,7 +67252,7 @@
         <v>119</v>
       </c>
       <c r="B139" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="C139" t="s">
         <v>494</v>
@@ -67336,7 +67341,7 @@
         <v>119</v>
       </c>
       <c r="B140" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="C140" t="s">
         <v>496</v>
@@ -67389,7 +67394,7 @@
         <v>119</v>
       </c>
       <c r="B141" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="C141" t="s">
         <v>497</v>
@@ -67478,7 +67483,7 @@
         <v>119</v>
       </c>
       <c r="B142" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="C142" t="s">
         <v>498</v>
@@ -67567,7 +67572,7 @@
         <v>119</v>
       </c>
       <c r="B143" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="C143" t="s">
         <v>500</v>
@@ -67656,7 +67661,7 @@
         <v>119</v>
       </c>
       <c r="B144" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="C144" t="s">
         <v>501</v>
@@ -67739,7 +67744,7 @@
         <v>120</v>
       </c>
       <c r="B145" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C145" t="s">
         <v>494</v>
@@ -67828,7 +67833,7 @@
         <v>120</v>
       </c>
       <c r="B146" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="C146" t="s">
         <v>496</v>
@@ -67917,7 +67922,7 @@
         <v>120</v>
       </c>
       <c r="B147" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="C147" t="s">
         <v>497</v>
@@ -68006,7 +68011,7 @@
         <v>120</v>
       </c>
       <c r="B148" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="C148" t="s">
         <v>498</v>
@@ -68095,7 +68100,7 @@
         <v>120</v>
       </c>
       <c r="B149" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="C149" t="s">
         <v>500</v>
@@ -68184,7 +68189,7 @@
         <v>120</v>
       </c>
       <c r="B150" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="C150" t="s">
         <v>501</v>
@@ -68273,7 +68278,7 @@
         <v>130</v>
       </c>
       <c r="B151" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="C151" t="s">
         <v>494</v>
@@ -68362,7 +68367,7 @@
         <v>130</v>
       </c>
       <c r="B152" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="C152" t="s">
         <v>496</v>
@@ -68451,7 +68456,7 @@
         <v>130</v>
       </c>
       <c r="B153" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="C153" t="s">
         <v>497</v>
@@ -68540,7 +68545,7 @@
         <v>130</v>
       </c>
       <c r="B154" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="C154" t="s">
         <v>498</v>
@@ -68629,7 +68634,7 @@
         <v>130</v>
       </c>
       <c r="B155" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="C155" t="s">
         <v>500</v>
@@ -68718,7 +68723,7 @@
         <v>130</v>
       </c>
       <c r="B156" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="C156" t="s">
         <v>501</v>
@@ -68807,7 +68812,7 @@
         <v>154</v>
       </c>
       <c r="B157" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C157" t="s">
         <v>494</v>
@@ -68896,7 +68901,7 @@
         <v>154</v>
       </c>
       <c r="B158" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C158" t="s">
         <v>496</v>
@@ -68949,7 +68954,7 @@
         <v>154</v>
       </c>
       <c r="B159" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="C159" t="s">
         <v>497</v>
@@ -69038,7 +69043,7 @@
         <v>154</v>
       </c>
       <c r="B160" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="C160" t="s">
         <v>498</v>
@@ -69127,7 +69132,7 @@
         <v>154</v>
       </c>
       <c r="B161" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="C161" t="s">
         <v>500</v>
@@ -69216,7 +69221,7 @@
         <v>154</v>
       </c>
       <c r="B162" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="C162" t="s">
         <v>501</v>
@@ -69305,7 +69310,7 @@
         <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="C163" t="s">
         <v>494</v>
@@ -69394,7 +69399,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C164" t="s">
         <v>496</v>
@@ -69483,7 +69488,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="C165" t="s">
         <v>497</v>
@@ -69572,7 +69577,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="C166" t="s">
         <v>498</v>
@@ -69661,7 +69666,7 @@
         <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="C167" t="s">
         <v>500</v>
@@ -69750,7 +69755,7 @@
         <v>164</v>
       </c>
       <c r="B168" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="C168" t="s">
         <v>501</v>
@@ -69839,7 +69844,7 @@
         <v>165</v>
       </c>
       <c r="B169" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="C169" t="s">
         <v>494</v>
@@ -69928,7 +69933,7 @@
         <v>165</v>
       </c>
       <c r="B170" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="C170" t="s">
         <v>496</v>
@@ -70017,7 +70022,7 @@
         <v>165</v>
       </c>
       <c r="B171" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="C171" t="s">
         <v>497</v>
@@ -70106,7 +70111,7 @@
         <v>165</v>
       </c>
       <c r="B172" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="C172" t="s">
         <v>500</v>
@@ -70195,7 +70200,7 @@
         <v>165</v>
       </c>
       <c r="B173" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="C173" t="s">
         <v>501</v>
@@ -70284,7 +70289,7 @@
         <v>166</v>
       </c>
       <c r="B174" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="C174" t="s">
         <v>494</v>
@@ -70373,7 +70378,7 @@
         <v>166</v>
       </c>
       <c r="B175" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="C175" t="s">
         <v>496</v>
@@ -70456,7 +70461,7 @@
         <v>166</v>
       </c>
       <c r="B176" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="C176" t="s">
         <v>497</v>
@@ -70545,7 +70550,7 @@
         <v>166</v>
       </c>
       <c r="B177" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="C177" t="s">
         <v>498</v>
@@ -70634,7 +70639,7 @@
         <v>166</v>
       </c>
       <c r="B178" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="C178" t="s">
         <v>500</v>
@@ -70723,7 +70728,7 @@
         <v>166</v>
       </c>
       <c r="B179" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="C179" t="s">
         <v>501</v>
@@ -70812,7 +70817,7 @@
         <v>167</v>
       </c>
       <c r="B180" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="C180" t="s">
         <v>494</v>
@@ -70901,7 +70906,7 @@
         <v>167</v>
       </c>
       <c r="B181" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="C181" t="s">
         <v>496</v>
@@ -70990,7 +70995,7 @@
         <v>167</v>
       </c>
       <c r="B182" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="C182" t="s">
         <v>497</v>
@@ -71079,7 +71084,7 @@
         <v>167</v>
       </c>
       <c r="B183" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="C183" t="s">
         <v>498</v>
@@ -71168,7 +71173,7 @@
         <v>167</v>
       </c>
       <c r="B184" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="C184" t="s">
         <v>500</v>
@@ -71257,7 +71262,7 @@
         <v>167</v>
       </c>
       <c r="B185" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="C185" t="s">
         <v>501</v>
@@ -71346,7 +71351,7 @@
         <v>168</v>
       </c>
       <c r="B186" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="C186" t="s">
         <v>494</v>
@@ -71435,7 +71440,7 @@
         <v>168</v>
       </c>
       <c r="B187" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="C187" t="s">
         <v>496</v>
@@ -71524,7 +71529,7 @@
         <v>168</v>
       </c>
       <c r="B188" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="C188" t="s">
         <v>497</v>
@@ -71613,7 +71618,7 @@
         <v>168</v>
       </c>
       <c r="B189" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="C189" t="s">
         <v>498</v>
@@ -71702,7 +71707,7 @@
         <v>168</v>
       </c>
       <c r="B190" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="C190" t="s">
         <v>500</v>
@@ -71791,7 +71796,7 @@
         <v>168</v>
       </c>
       <c r="B191" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="C191" t="s">
         <v>501</v>
@@ -71880,7 +71885,7 @@
         <v>169</v>
       </c>
       <c r="B192" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="C192" t="s">
         <v>494</v>
@@ -71969,7 +71974,7 @@
         <v>169</v>
       </c>
       <c r="B193" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="C193" t="s">
         <v>496</v>
@@ -72058,7 +72063,7 @@
         <v>169</v>
       </c>
       <c r="B194" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="C194" t="s">
         <v>497</v>
@@ -72147,7 +72152,7 @@
         <v>169</v>
       </c>
       <c r="B195" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="C195" t="s">
         <v>498</v>
@@ -72236,7 +72241,7 @@
         <v>169</v>
       </c>
       <c r="B196" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="C196" t="s">
         <v>500</v>
@@ -72325,7 +72330,7 @@
         <v>169</v>
       </c>
       <c r="B197" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="C197" t="s">
         <v>501</v>
@@ -72414,7 +72419,7 @@
         <v>170</v>
       </c>
       <c r="B198" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="C198" t="s">
         <v>494</v>
@@ -72503,7 +72508,7 @@
         <v>170</v>
       </c>
       <c r="B199" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="C199" t="s">
         <v>496</v>
@@ -72592,7 +72597,7 @@
         <v>170</v>
       </c>
       <c r="B200" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="C200" t="s">
         <v>497</v>
@@ -72681,7 +72686,7 @@
         <v>170</v>
       </c>
       <c r="B201" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="C201" t="s">
         <v>500</v>
@@ -72770,7 +72775,7 @@
         <v>170</v>
       </c>
       <c r="B202" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="C202" t="s">
         <v>501</v>
@@ -72859,7 +72864,7 @@
         <v>171</v>
       </c>
       <c r="B203" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="C203" t="s">
         <v>494</v>
@@ -72948,7 +72953,7 @@
         <v>171</v>
       </c>
       <c r="B204" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="C204" t="s">
         <v>496</v>
@@ -73037,7 +73042,7 @@
         <v>171</v>
       </c>
       <c r="B205" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="C205" t="s">
         <v>497</v>
@@ -73126,7 +73131,7 @@
         <v>171</v>
       </c>
       <c r="B206" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C206" t="s">
         <v>498</v>
@@ -73215,7 +73220,7 @@
         <v>171</v>
       </c>
       <c r="B207" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="C207" t="s">
         <v>500</v>
@@ -73304,7 +73309,7 @@
         <v>171</v>
       </c>
       <c r="B208" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="C208" t="s">
         <v>501</v>
@@ -73393,7 +73398,7 @@
         <v>172</v>
       </c>
       <c r="B209" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="C209" t="s">
         <v>500</v>
@@ -73482,7 +73487,7 @@
         <v>173</v>
       </c>
       <c r="B210" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="C210" t="s">
         <v>494</v>
@@ -73571,7 +73576,7 @@
         <v>173</v>
       </c>
       <c r="B211" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="C211" t="s">
         <v>496</v>
@@ -73645,7 +73650,7 @@
         <v>173</v>
       </c>
       <c r="B212" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="C212" t="s">
         <v>497</v>
@@ -73734,7 +73739,7 @@
         <v>173</v>
       </c>
       <c r="B213" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="C213" t="s">
         <v>498</v>
@@ -73823,7 +73828,7 @@
         <v>173</v>
       </c>
       <c r="B214" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="C214" t="s">
         <v>500</v>
@@ -73912,7 +73917,7 @@
         <v>173</v>
       </c>
       <c r="B215" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="C215" t="s">
         <v>500</v>
@@ -74001,7 +74006,7 @@
         <v>173</v>
       </c>
       <c r="B216" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="C216" t="s">
         <v>501</v>
@@ -74090,7 +74095,7 @@
         <v>174</v>
       </c>
       <c r="B217" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="C217" t="s">
         <v>494</v>
@@ -74179,7 +74184,7 @@
         <v>174</v>
       </c>
       <c r="B218" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="C218" t="s">
         <v>496</v>
@@ -74268,7 +74273,7 @@
         <v>174</v>
       </c>
       <c r="B219" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="C219" t="s">
         <v>497</v>
@@ -74357,7 +74362,7 @@
         <v>174</v>
       </c>
       <c r="B220" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="C220" t="s">
         <v>498</v>
@@ -74446,7 +74451,7 @@
         <v>174</v>
       </c>
       <c r="B221" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="C221" t="s">
         <v>501</v>
@@ -74535,7 +74540,7 @@
         <v>175</v>
       </c>
       <c r="B222" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="C222" t="s">
         <v>494</v>
@@ -74624,7 +74629,7 @@
         <v>175</v>
       </c>
       <c r="B223" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="C223" t="s">
         <v>496</v>
@@ -74713,7 +74718,7 @@
         <v>175</v>
       </c>
       <c r="B224" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="C224" t="s">
         <v>497</v>
@@ -74802,7 +74807,7 @@
         <v>175</v>
       </c>
       <c r="B225" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="C225" t="s">
         <v>498</v>
@@ -74891,7 +74896,7 @@
         <v>175</v>
       </c>
       <c r="B226" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="C226" t="s">
         <v>500</v>
@@ -74980,7 +74985,7 @@
         <v>180</v>
       </c>
       <c r="B227" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="C227" t="s">
         <v>494</v>
@@ -75069,7 +75074,7 @@
         <v>180</v>
       </c>
       <c r="B228" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="C228" t="s">
         <v>496</v>
@@ -75158,7 +75163,7 @@
         <v>180</v>
       </c>
       <c r="B229" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="C229" t="s">
         <v>497</v>
@@ -75247,7 +75252,7 @@
         <v>180</v>
       </c>
       <c r="B230" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="C230" t="s">
         <v>500</v>
@@ -75336,7 +75341,7 @@
         <v>181</v>
       </c>
       <c r="B231" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="C231" t="s">
         <v>494</v>
@@ -75425,7 +75430,7 @@
         <v>181</v>
       </c>
       <c r="B232" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="C232" t="s">
         <v>496</v>
@@ -75493,7 +75498,7 @@
         <v>181</v>
       </c>
       <c r="B233" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="C233" t="s">
         <v>497</v>
@@ -75582,7 +75587,7 @@
         <v>181</v>
       </c>
       <c r="B234" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="C234" t="s">
         <v>500</v>
@@ -75671,7 +75676,7 @@
         <v>181</v>
       </c>
       <c r="B235" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="C235" t="s">
         <v>501</v>
@@ -75760,7 +75765,7 @@
         <v>185</v>
       </c>
       <c r="B236" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="C236" t="s">
         <v>494</v>
@@ -75849,7 +75854,7 @@
         <v>185</v>
       </c>
       <c r="B237" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="C237" t="s">
         <v>497</v>
@@ -75938,7 +75943,7 @@
         <v>185</v>
       </c>
       <c r="B238" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="C238" t="s">
         <v>498</v>
@@ -76027,7 +76032,7 @@
         <v>185</v>
       </c>
       <c r="B239" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="C239" t="s">
         <v>500</v>
@@ -76116,7 +76121,7 @@
         <v>185</v>
       </c>
       <c r="B240" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="C240" t="s">
         <v>501</v>
@@ -76205,7 +76210,7 @@
         <v>186</v>
       </c>
       <c r="B241" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="C241" t="s">
         <v>494</v>
@@ -76294,7 +76299,7 @@
         <v>186</v>
       </c>
       <c r="B242" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="C242" t="s">
         <v>496</v>
@@ -76383,7 +76388,7 @@
         <v>186</v>
       </c>
       <c r="B243" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="C243" t="s">
         <v>497</v>
@@ -76472,7 +76477,7 @@
         <v>186</v>
       </c>
       <c r="B244" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="C244" t="s">
         <v>498</v>
@@ -76561,7 +76566,7 @@
         <v>186</v>
       </c>
       <c r="B245" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="C245" t="s">
         <v>500</v>
@@ -76650,7 +76655,7 @@
         <v>189</v>
       </c>
       <c r="B246" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="C246" t="s">
         <v>494</v>
@@ -76739,7 +76744,7 @@
         <v>189</v>
       </c>
       <c r="B247" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="C247" t="s">
         <v>496</v>
@@ -76828,7 +76833,7 @@
         <v>189</v>
       </c>
       <c r="B248" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="C248" t="s">
         <v>498</v>
@@ -76917,7 +76922,7 @@
         <v>189</v>
       </c>
       <c r="B249" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="C249" t="s">
         <v>500</v>
@@ -77006,7 +77011,7 @@
         <v>189</v>
       </c>
       <c r="B250" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="C250" t="s">
         <v>501</v>
@@ -77095,7 +77100,7 @@
         <v>195</v>
       </c>
       <c r="B251" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="C251" t="s">
         <v>494</v>
@@ -77184,7 +77189,7 @@
         <v>195</v>
       </c>
       <c r="B252" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="C252" t="s">
         <v>496</v>
@@ -77273,7 +77278,7 @@
         <v>195</v>
       </c>
       <c r="B253" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="C253" t="s">
         <v>497</v>
@@ -77362,7 +77367,7 @@
         <v>195</v>
       </c>
       <c r="B254" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="C254" t="s">
         <v>498</v>
@@ -77451,7 +77456,7 @@
         <v>195</v>
       </c>
       <c r="B255" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="C255" t="s">
         <v>500</v>
@@ -77540,7 +77545,7 @@
         <v>195</v>
       </c>
       <c r="B256" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="C256" t="s">
         <v>501</v>
@@ -77629,7 +77634,7 @@
         <v>196</v>
       </c>
       <c r="B257" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="C257" t="s">
         <v>494</v>
@@ -77718,7 +77723,7 @@
         <v>196</v>
       </c>
       <c r="B258" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="C258" t="s">
         <v>496</v>
@@ -77792,7 +77797,7 @@
         <v>196</v>
       </c>
       <c r="B259" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="C259" t="s">
         <v>497</v>
@@ -77881,7 +77886,7 @@
         <v>196</v>
       </c>
       <c r="B260" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="C260" t="s">
         <v>498</v>
@@ -77970,7 +77975,7 @@
         <v>196</v>
       </c>
       <c r="B261" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="C261" t="s">
         <v>500</v>
@@ -78059,7 +78064,7 @@
         <v>196</v>
       </c>
       <c r="B262" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="C262" t="s">
         <v>501</v>
@@ -78148,7 +78153,7 @@
         <v>197</v>
       </c>
       <c r="B263" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="C263" t="s">
         <v>494</v>
@@ -78237,7 +78242,7 @@
         <v>197</v>
       </c>
       <c r="B264" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="C264" t="s">
         <v>496</v>
@@ -78326,7 +78331,7 @@
         <v>197</v>
       </c>
       <c r="B265" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="C265" t="s">
         <v>497</v>
@@ -78415,7 +78420,7 @@
         <v>197</v>
       </c>
       <c r="B266" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="C266" t="s">
         <v>498</v>
@@ -78504,7 +78509,7 @@
         <v>197</v>
       </c>
       <c r="B267" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="C267" t="s">
         <v>500</v>
@@ -78593,7 +78598,7 @@
         <v>197</v>
       </c>
       <c r="B268" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="C268" t="s">
         <v>501</v>
@@ -78682,7 +78687,7 @@
         <v>198</v>
       </c>
       <c r="B269" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="C269" t="s">
         <v>494</v>
@@ -78771,7 +78776,7 @@
         <v>198</v>
       </c>
       <c r="B270" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="C270" t="s">
         <v>496</v>
@@ -78860,7 +78865,7 @@
         <v>198</v>
       </c>
       <c r="B271" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="C271" t="s">
         <v>497</v>
@@ -78949,7 +78954,7 @@
         <v>198</v>
       </c>
       <c r="B272" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="C272" t="s">
         <v>498</v>
@@ -79038,7 +79043,7 @@
         <v>198</v>
       </c>
       <c r="B273" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="C273" t="s">
         <v>500</v>
@@ -79127,7 +79132,7 @@
         <v>198</v>
       </c>
       <c r="B274" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="C274" t="s">
         <v>501</v>
@@ -79216,7 +79221,7 @@
         <v>200</v>
       </c>
       <c r="B275" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="C275" t="s">
         <v>494</v>
@@ -79305,7 +79310,7 @@
         <v>200</v>
       </c>
       <c r="B276" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="C276" t="s">
         <v>496</v>
@@ -79394,7 +79399,7 @@
         <v>200</v>
       </c>
       <c r="B277" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="C277" t="s">
         <v>497</v>
@@ -79483,7 +79488,7 @@
         <v>200</v>
       </c>
       <c r="B278" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="C278" t="s">
         <v>498</v>
@@ -79572,7 +79577,7 @@
         <v>200</v>
       </c>
       <c r="B279" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="C279" t="s">
         <v>500</v>
@@ -79661,7 +79666,7 @@
         <v>200</v>
       </c>
       <c r="B280" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="C280" t="s">
         <v>501</v>
@@ -79753,9 +79758,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A45FD3-5A39-134A-A989-9188B02B862E}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -79770,939 +79777,611 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>513</v>
-      </c>
+      <c r="B1" s="60" t="s">
+        <v>963</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>964</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>965</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>966</v>
+      </c>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="43">
         <v>68.900000000000006</v>
       </c>
       <c r="C2">
-        <v>86.6</v>
+        <v>25.044031311154598</v>
       </c>
       <c r="D2">
-        <v>85.4</v>
+        <v>53.121967000970557</v>
       </c>
       <c r="E2">
-        <v>79.900000000000006</v>
-      </c>
-      <c r="F2">
-        <v>73.8</v>
-      </c>
-      <c r="G2">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="H2">
-        <v>1.97</v>
+        <v>98.755214195855132</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="43">
         <v>3.98</v>
       </c>
       <c r="C3">
-        <v>92.5</v>
+        <v>45.850517633195857</v>
       </c>
       <c r="D3">
-        <v>91.5</v>
+        <v>31.611676431287904</v>
       </c>
       <c r="E3">
-        <v>91.5</v>
-      </c>
-      <c r="F3">
-        <v>80.8</v>
-      </c>
-      <c r="G3">
-        <v>60.7</v>
-      </c>
-      <c r="H3">
-        <v>41.5</v>
+        <v>70.973184159119157</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="43">
         <v>4.7</v>
       </c>
       <c r="C4">
-        <v>86</v>
+        <v>45.491532878821204</v>
       </c>
       <c r="D4">
-        <v>83.5</v>
+        <v>49.375104149308449</v>
       </c>
       <c r="E4">
-        <v>79.2</v>
-      </c>
-      <c r="F4">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="G4">
-        <v>50.1</v>
-      </c>
-      <c r="H4">
-        <v>20.3</v>
+        <v>84.097700402754327</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="43">
         <v>26.5</v>
       </c>
       <c r="C5">
-        <v>92.6</v>
+        <v>14.146184394118279</v>
       </c>
       <c r="D5">
-        <v>90.4</v>
+        <v>41.367469575316868</v>
       </c>
       <c r="E5">
-        <v>88.1</v>
-      </c>
-      <c r="F5">
-        <v>81.599999999999994</v>
-      </c>
-      <c r="G5">
-        <v>57.1</v>
-      </c>
-      <c r="H5">
-        <v>8.1300000000000008</v>
+        <v>97.805916384674163</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="43">
         <v>6.84</v>
       </c>
       <c r="C6">
-        <v>92.4</v>
+        <v>39.382751112373377</v>
       </c>
       <c r="D6">
-        <v>91.5</v>
+        <v>34.218304655336212</v>
       </c>
       <c r="E6">
-        <v>90.6</v>
-      </c>
-      <c r="F6">
-        <v>79.8</v>
-      </c>
-      <c r="G6">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="H6">
-        <v>9.0299999999999994</v>
+        <v>96.312385841931189</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="43">
         <v>27.4</v>
       </c>
-      <c r="C7">
-        <v>92.4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>291</v>
-      </c>
       <c r="E7">
-        <v>79.8</v>
-      </c>
-      <c r="F7">
-        <v>90.4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H7">
-        <v>9.0399999999999991</v>
+        <v>97.939208907646034</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>87</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="43">
         <v>17.3</v>
       </c>
       <c r="C8">
-        <v>94.8</v>
+        <v>-15.9267545925577</v>
       </c>
       <c r="D8">
-        <v>94.1</v>
+        <v>6.0498434866361634</v>
       </c>
       <c r="E8">
-        <v>94.4</v>
-      </c>
-      <c r="F8">
-        <v>89.6</v>
-      </c>
-      <c r="G8">
-        <v>77.599999999999994</v>
-      </c>
-      <c r="H8">
-        <v>35.1</v>
+        <v>67.992209056971262</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>90</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="43">
         <v>11.8</v>
       </c>
       <c r="C9">
-        <v>96.1</v>
+        <v>25.246345677859239</v>
       </c>
       <c r="D9">
-        <v>88.6</v>
+        <v>33.155591327531567</v>
       </c>
       <c r="E9">
-        <v>91.8</v>
-      </c>
-      <c r="F9">
-        <v>88</v>
-      </c>
-      <c r="G9">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="H9">
-        <v>29.7</v>
+        <v>82.057716436637392</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>88</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="43">
         <v>20.5</v>
       </c>
       <c r="C10">
-        <v>93.7</v>
+        <v>-23.818912011683096</v>
       </c>
       <c r="D10">
-        <v>94</v>
+        <v>7.7160493827160508</v>
       </c>
       <c r="E10">
-        <v>92.1</v>
-      </c>
-      <c r="F10">
-        <v>88.9</v>
-      </c>
-      <c r="G10">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="H10">
-        <v>12.2</v>
+        <v>95.920212124864406</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="43">
         <v>31.6</v>
       </c>
-      <c r="C11">
-        <v>86</v>
-      </c>
-      <c r="D11" t="s">
-        <v>291</v>
-      </c>
       <c r="E11">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="F11">
-        <v>80.099999999999994</v>
-      </c>
-      <c r="G11" t="s">
-        <v>291</v>
-      </c>
-      <c r="H11">
-        <v>19.5</v>
+        <v>85.447278711649233</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>91</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="43">
         <v>22.3</v>
       </c>
       <c r="C12">
-        <v>96</v>
+        <v>23.238935534367442</v>
       </c>
       <c r="D12">
-        <v>94.4</v>
+        <v>29.731561115454781</v>
       </c>
       <c r="E12">
-        <v>90.2</v>
-      </c>
-      <c r="F12">
-        <v>87.9</v>
-      </c>
-      <c r="G12">
-        <v>83</v>
-      </c>
-      <c r="H12">
-        <v>18.7</v>
+        <v>96.25823302293891</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>130</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="43">
         <v>25.3</v>
       </c>
       <c r="C13">
-        <v>95.9</v>
+        <v>-10.265244282097044</v>
       </c>
       <c r="D13">
-        <v>94.1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>93.8</v>
-      </c>
-      <c r="F13">
-        <v>92.7</v>
-      </c>
-      <c r="G13">
-        <v>85.8</v>
-      </c>
-      <c r="H13">
-        <v>22.7</v>
+        <v>84.961571657556206</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>101</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="43">
         <v>23.7</v>
       </c>
       <c r="C14">
-        <v>96.4</v>
+        <v>-7.8721210037813734</v>
       </c>
       <c r="D14">
-        <v>93.8</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>93</v>
-      </c>
-      <c r="F14">
-        <v>87.2</v>
-      </c>
-      <c r="G14">
-        <v>80</v>
-      </c>
-      <c r="H14">
-        <v>14.1</v>
+        <v>95.632559032443851</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>100</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="43">
         <v>51.2</v>
       </c>
       <c r="C15">
-        <v>96.6</v>
+        <v>15.551528878822197</v>
       </c>
       <c r="D15">
-        <v>95.2</v>
+        <v>14.970364882385624</v>
       </c>
       <c r="E15">
-        <v>93.2</v>
-      </c>
-      <c r="F15">
-        <v>87.3</v>
-      </c>
-      <c r="G15">
-        <v>82.9</v>
-      </c>
-      <c r="H15">
-        <v>11.3</v>
+        <v>96.771618625277156</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>120</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="43">
         <v>35.700000000000003</v>
       </c>
       <c r="C16">
-        <v>96.5</v>
+        <v>-20.302264107573848</v>
       </c>
       <c r="D16">
-        <v>94.3</v>
+        <v>13.791237287753404</v>
       </c>
       <c r="E16">
-        <v>93.2</v>
-      </c>
-      <c r="F16">
-        <v>91.9</v>
-      </c>
-      <c r="G16">
-        <v>85.6</v>
-      </c>
-      <c r="H16">
-        <v>24.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>93.496543635047786</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>92</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="43">
         <v>8.2799999999999994</v>
       </c>
       <c r="C17">
-        <v>95.8</v>
+        <v>-10.319333719324817</v>
       </c>
       <c r="D17">
-        <v>94.6</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>94</v>
-      </c>
-      <c r="F17">
-        <v>91.9</v>
-      </c>
-      <c r="G17">
-        <v>85.7</v>
-      </c>
-      <c r="H17">
-        <v>28.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>79.305494505494508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>89</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="43">
         <v>45.4</v>
       </c>
       <c r="C18">
-        <v>96</v>
+        <v>15.108368928966939</v>
       </c>
       <c r="D18">
-        <v>94.2</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>84.8</v>
-      </c>
-      <c r="F18">
-        <v>88.5</v>
-      </c>
-      <c r="G18">
-        <v>86.2</v>
-      </c>
-      <c r="H18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>95.0926035153946</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>108</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="43">
         <v>42.1</v>
       </c>
       <c r="C19">
-        <v>90.2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>291</v>
+        <v>-8.673434155099784</v>
       </c>
       <c r="E19">
-        <v>93.2</v>
-      </c>
-      <c r="F19">
-        <v>94</v>
-      </c>
-      <c r="G19" t="s">
-        <v>291</v>
-      </c>
-      <c r="H19">
-        <v>8.02</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>98.21925839073721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>109</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="43">
         <v>29</v>
       </c>
       <c r="C20">
-        <v>96.5</v>
+        <v>-28.9927340076934</v>
       </c>
       <c r="D20">
-        <v>86.2</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>82.7</v>
-      </c>
-      <c r="F20">
-        <v>95.2</v>
-      </c>
-      <c r="G20">
-        <v>86.2</v>
-      </c>
-      <c r="H20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>96.36446607849102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>110</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="43">
         <v>53.6</v>
       </c>
       <c r="C21">
-        <v>96.4</v>
+        <v>21.79100320319391</v>
       </c>
       <c r="D21">
-        <v>93.4</v>
+        <v>4.1886015106431671</v>
       </c>
       <c r="E21">
-        <v>92.5</v>
-      </c>
-      <c r="F21">
-        <v>94.9</v>
-      </c>
-      <c r="G21">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="H21">
-        <v>5.94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>98.701101405241175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>111</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="43">
         <v>29.3</v>
       </c>
       <c r="C22">
-        <v>90.4</v>
+        <v>-22.775932078257654</v>
       </c>
       <c r="D22">
-        <v>90.2</v>
+        <v>20.11192483073097</v>
       </c>
       <c r="E22">
-        <v>89.4</v>
-      </c>
-      <c r="F22">
-        <v>87</v>
-      </c>
-      <c r="G22">
-        <v>71.8</v>
-      </c>
-      <c r="H22">
-        <v>16.100000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>95.68809187991134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>113</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="43">
         <v>18.100000000000001</v>
       </c>
       <c r="C23">
-        <v>94.9</v>
+        <v>-7.0482866043613654</v>
       </c>
       <c r="D23">
-        <v>93.1</v>
+        <v>25.440447788585061</v>
       </c>
       <c r="E23">
-        <v>92.9</v>
-      </c>
-      <c r="F23">
-        <v>84.8</v>
-      </c>
-      <c r="G23">
-        <v>78.7</v>
-      </c>
-      <c r="H23">
-        <v>24.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>77.267444798140573</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>114</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="43">
         <v>57.1</v>
       </c>
       <c r="C24">
-        <v>95.3</v>
+        <v>35.336295697838821</v>
       </c>
       <c r="D24">
-        <v>94.2</v>
+        <v>17.040996469203606</v>
       </c>
       <c r="E24">
-        <v>92.1</v>
-      </c>
-      <c r="F24">
-        <v>88.1</v>
-      </c>
-      <c r="G24">
-        <v>82.7</v>
-      </c>
-      <c r="H24">
-        <v>7.92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>99.565738244983521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>112</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="43">
         <v>21.8</v>
       </c>
       <c r="C25">
-        <v>90.7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>291</v>
+        <v>-8.2332761578044256E-2</v>
       </c>
       <c r="E25">
-        <v>88.1</v>
-      </c>
-      <c r="F25">
-        <v>85.9</v>
-      </c>
-      <c r="G25" t="s">
-        <v>291</v>
-      </c>
-      <c r="H25">
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>97.161438408569239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>119</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="43">
         <v>30.3</v>
       </c>
       <c r="C26">
-        <v>96.7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>291</v>
+        <v>-5.6476607467899811</v>
       </c>
       <c r="E26">
-        <v>94.3</v>
-      </c>
-      <c r="F26">
-        <v>91.8</v>
-      </c>
-      <c r="G26" t="s">
-        <v>291</v>
-      </c>
-      <c r="H26">
-        <v>61.7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>35.00380191996959</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>154</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="43">
         <v>17.399999999999999</v>
       </c>
       <c r="C27">
-        <v>96</v>
+        <v>-14.362607788213325</v>
       </c>
       <c r="D27">
-        <v>94.9</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>92.5</v>
-      </c>
-      <c r="F27">
-        <v>90</v>
-      </c>
-      <c r="G27">
-        <v>85.6</v>
-      </c>
-      <c r="H27">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>79.601535368305605</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>164</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="43">
         <v>44.2</v>
       </c>
       <c r="C28">
-        <v>94.2</v>
+        <v>18.577540770137034</v>
       </c>
       <c r="D28">
-        <v>93.3</v>
+        <v>63.176400476758047</v>
       </c>
       <c r="E28">
-        <v>89.5</v>
-      </c>
-      <c r="F28">
-        <v>82.6</v>
-      </c>
-      <c r="G28">
-        <v>43.2</v>
-      </c>
-      <c r="H28">
-        <v>7.39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>97.44713278719756</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>165</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="43">
         <v>5.04</v>
       </c>
       <c r="C29">
-        <v>95.8</v>
+        <v>12.009716791088991</v>
       </c>
       <c r="D29">
-        <v>94.8</v>
+        <v>5.8823529411764639</v>
       </c>
       <c r="E29">
-        <v>93.7</v>
-      </c>
-      <c r="F29">
-        <v>92.1</v>
-      </c>
-      <c r="G29">
-        <v>83.9</v>
-      </c>
-      <c r="H29">
-        <v>46.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>64.938047748564514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="43">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="C30">
+        <v>1.9199908298945445</v>
+      </c>
+      <c r="D30">
+        <v>10.800452374968586</v>
+      </c>
+      <c r="E30">
+        <v>97.973756484589558</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>169</v>
       </c>
-      <c r="B30">
+      <c r="B31" s="43">
         <v>2.64</v>
       </c>
-      <c r="C30">
-        <v>95.1</v>
-      </c>
-      <c r="D30">
-        <v>92.5</v>
-      </c>
-      <c r="E30">
-        <v>91.1</v>
-      </c>
-      <c r="F30">
-        <v>82.2</v>
-      </c>
-      <c r="G30">
-        <v>67.3</v>
-      </c>
-      <c r="H30">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="C31">
+        <v>13.975903614457835</v>
+      </c>
+      <c r="D31">
+        <v>30.70541931577354</v>
+      </c>
+      <c r="E31">
+        <v>94.449692961738307</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="B31">
+      <c r="B32" s="43">
         <v>14.8</v>
       </c>
-      <c r="C31">
-        <v>96.8</v>
-      </c>
-      <c r="D31">
-        <v>94.1</v>
-      </c>
-      <c r="E31">
-        <v>93.8</v>
-      </c>
-      <c r="F31">
-        <v>92.4</v>
-      </c>
-      <c r="G31">
-        <v>75.2</v>
-      </c>
-      <c r="H31">
-        <v>27.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="C32">
+        <v>-9.2921174652241092</v>
+      </c>
+      <c r="D32">
+        <v>0.28053002268114824</v>
+      </c>
+      <c r="E32">
+        <v>82.473933109224546</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>173</v>
       </c>
-      <c r="B32">
+      <c r="B33" s="43">
         <v>14.9</v>
       </c>
-      <c r="C32">
-        <v>95.6</v>
-      </c>
-      <c r="D32">
-        <v>94.6</v>
-      </c>
-      <c r="E32">
-        <v>92.2</v>
-      </c>
-      <c r="F32">
-        <v>92.3</v>
-      </c>
-      <c r="G32">
-        <v>86.7</v>
-      </c>
-      <c r="H32">
-        <v>42.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="C33">
+        <v>-41.29292221443589</v>
+      </c>
+      <c r="D33">
+        <v>17.120911793855299</v>
+      </c>
+      <c r="E33">
+        <v>85.977434952797609</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="B33">
+      <c r="B34" s="43">
         <v>3.2</v>
       </c>
-      <c r="C33">
-        <v>93.5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>291</v>
-      </c>
-      <c r="E33">
-        <v>93.4</v>
-      </c>
-      <c r="F33">
-        <v>88.3</v>
-      </c>
-      <c r="G33" t="s">
-        <v>291</v>
-      </c>
-      <c r="H33">
-        <v>49.7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="C34">
+        <v>17.630202736585716</v>
+      </c>
+      <c r="E34">
+        <v>69.755584331498866</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="B34">
+      <c r="B35" s="43">
         <v>1.4</v>
       </c>
-      <c r="C34">
-        <v>96.02</v>
-      </c>
-      <c r="D34">
-        <v>94.9</v>
-      </c>
-      <c r="E34">
-        <v>94</v>
-      </c>
-      <c r="F34">
-        <v>92.1</v>
-      </c>
-      <c r="G34">
-        <v>59.4</v>
-      </c>
-      <c r="H34">
-        <v>60.7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="C35">
+        <v>-16.139668583023337</v>
+      </c>
+      <c r="D35">
+        <v>85.759209344115007</v>
+      </c>
+      <c r="E35">
+        <v>62.377825290164935</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="B35">
+      <c r="B36" s="43">
         <v>15.9</v>
       </c>
-      <c r="C35">
-        <v>92.5</v>
-      </c>
-      <c r="D35">
-        <v>92.5</v>
-      </c>
-      <c r="E35">
-        <v>87.8</v>
-      </c>
-      <c r="F35">
-        <v>86</v>
-      </c>
-      <c r="G35">
-        <v>79.3</v>
-      </c>
-      <c r="H35">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="C36">
+        <v>7.0095555698069631</v>
+      </c>
+      <c r="D36">
+        <v>12.587670727205605</v>
+      </c>
+      <c r="E36">
+        <v>89.23949767323262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="B36">
+      <c r="B37" s="43">
         <v>1.7</v>
       </c>
-      <c r="C36">
-        <v>96.9</v>
-      </c>
-      <c r="D36">
-        <v>95.7</v>
-      </c>
-      <c r="E36">
-        <v>95.5</v>
-      </c>
-      <c r="F36">
-        <v>90.7</v>
-      </c>
-      <c r="G36">
-        <v>94.4</v>
-      </c>
-      <c r="H36">
-        <v>57.9</v>
+      <c r="C37">
+        <v>17.695134660742696</v>
+      </c>
+      <c r="D37">
+        <v>18.565906244895743</v>
+      </c>
+      <c r="E37">
+        <v>62.095156205216398</v>
       </c>
     </row>
   </sheetData>
@@ -80727,13 +80406,13 @@
         <v>210</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16383" x14ac:dyDescent="0.2">
@@ -80747,7 +80426,7 @@
         <v>-134</v>
       </c>
       <c r="D2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16383" x14ac:dyDescent="0.2">
@@ -80761,7 +80440,7 @@
         <v>-130</v>
       </c>
       <c r="D3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16383" x14ac:dyDescent="0.2">
@@ -80775,7 +80454,7 @@
         <v>-120</v>
       </c>
       <c r="D4" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16383" x14ac:dyDescent="0.2">
@@ -80789,7 +80468,7 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16383" x14ac:dyDescent="0.2">
@@ -80803,7 +80482,7 @@
         <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16383" s="46" customFormat="1" x14ac:dyDescent="0.2">
@@ -80817,7 +80496,7 @@
         <v>125</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16383" s="46" customFormat="1" x14ac:dyDescent="0.2">
@@ -80831,7 +80510,7 @@
         <v>128</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16383" s="46" customFormat="1" x14ac:dyDescent="0.2">
@@ -80845,7 +80524,7 @@
         <v>133</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16383" s="46" customFormat="1" x14ac:dyDescent="0.2">
@@ -80859,7 +80538,7 @@
         <v>138</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16383" s="46" customFormat="1" x14ac:dyDescent="0.2">
@@ -80873,7 +80552,7 @@
         <v>183</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16383" s="46" customFormat="1" x14ac:dyDescent="0.2">
@@ -80887,7 +80566,7 @@
         <v>210</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="F12" s="47"/>
       <c r="G12" s="47"/>
@@ -89091,7 +88770,7 @@
         <v>-133</v>
       </c>
       <c r="D13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16383" x14ac:dyDescent="0.2">
@@ -89105,7 +88784,7 @@
         <v>-128</v>
       </c>
       <c r="D14" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16383" x14ac:dyDescent="0.2">
@@ -89119,7 +88798,7 @@
         <v>-121</v>
       </c>
       <c r="D15" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16383" x14ac:dyDescent="0.2">
@@ -89133,7 +88812,7 @@
         <v>-86</v>
       </c>
       <c r="D16" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -89147,7 +88826,7 @@
         <v>-50</v>
       </c>
       <c r="D17" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -89161,7 +88840,7 @@
         <v>-23</v>
       </c>
       <c r="D18" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -89175,7 +88854,7 @@
         <v>-84</v>
       </c>
       <c r="D19" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -89189,7 +88868,7 @@
         <v>-77</v>
       </c>
       <c r="D20" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -89203,7 +88882,7 @@
         <v>-70</v>
       </c>
       <c r="D21" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -89217,7 +88896,7 @@
         <v>-42</v>
       </c>
       <c r="D22" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -89231,7 +88910,7 @@
         <v>-14</v>
       </c>
       <c r="D23" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -89245,7 +88924,7 @@
         <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -89259,7 +88938,7 @@
         <v>-252</v>
       </c>
       <c r="D25" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -89273,7 +88952,7 @@
         <v>-246</v>
       </c>
       <c r="D26" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -89287,7 +88966,7 @@
         <v>-239</v>
       </c>
       <c r="D27" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -89301,7 +88980,7 @@
         <v>-211</v>
       </c>
       <c r="D28" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -89315,7 +88994,7 @@
         <v>-176</v>
       </c>
       <c r="D29" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -89329,7 +89008,7 @@
         <v>-47</v>
       </c>
       <c r="D30" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -89343,7 +89022,7 @@
         <v>-264</v>
       </c>
       <c r="D31" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -89357,7 +89036,7 @@
         <v>-256</v>
       </c>
       <c r="D32" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -89371,7 +89050,7 @@
         <v>-220</v>
       </c>
       <c r="D33" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -89385,7 +89064,7 @@
         <v>-185</v>
       </c>
       <c r="D34" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -89399,7 +89078,7 @@
         <v>-161</v>
       </c>
       <c r="D35" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -89413,7 +89092,7 @@
         <v>-107</v>
       </c>
       <c r="D36" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -89427,7 +89106,7 @@
         <v>-77</v>
       </c>
       <c r="D37" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -89441,7 +89120,7 @@
         <v>-29</v>
       </c>
       <c r="D38" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -89455,7 +89134,7 @@
         <v>-15</v>
       </c>
       <c r="D39" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -89469,7 +89148,7 @@
         <v>59</v>
       </c>
       <c r="D40" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -89483,7 +89162,7 @@
         <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -89497,7 +89176,7 @@
         <v>64</v>
       </c>
       <c r="D42" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -89511,7 +89190,7 @@
         <v>-81</v>
       </c>
       <c r="D43" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -89525,7 +89204,7 @@
         <v>-53</v>
       </c>
       <c r="D44" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -89539,7 +89218,7 @@
         <v>-26</v>
       </c>
       <c r="D45" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -89553,7 +89232,7 @@
         <v>-36</v>
       </c>
       <c r="D46" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -89567,7 +89246,7 @@
         <v>-155</v>
       </c>
       <c r="D47" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -89581,7 +89260,7 @@
         <v>-153</v>
       </c>
       <c r="D48" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -89595,7 +89274,7 @@
         <v>-149</v>
       </c>
       <c r="D49" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -89609,7 +89288,7 @@
         <v>-94</v>
       </c>
       <c r="D50" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -89623,7 +89302,7 @@
         <v>-79</v>
       </c>
       <c r="D51" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
